--- a/Örnek 14 - Satır Sütun Silme.xlsx
+++ b/Örnek 14 - Satır Sütun Silme.xlsx
@@ -1,28 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mamis\Desktop\Excel - MAH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E48B986D-FD88-4209-8051-631D717421F5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B874E365-2004-4D48-99AE-60F9C59B839E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
     <sheet name="Sayfa2" sheetId="2" r:id="rId2"/>
     <sheet name="Sayfa3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
   <si>
     <t>1. 3 ve 5 sütunu sil</t>
   </si>
@@ -84,12 +87,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>Muhammed Ali Harmancı</t>
+  </si>
+  <si>
+    <t>Yönetim Bilişim Sistemleri</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -451,23 +460,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D1"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="16" max="16" width="47.5703125" customWidth="1"/>
+    <col min="16" max="16" width="47.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6"/>
+      <c r="B1" s="6">
+        <v>20215070055</v>
+      </c>
       <c r="C1" s="6"/>
       <c r="D1" s="6"/>
       <c r="E1" s="5"/>
@@ -478,18 +489,22 @@
       <c r="A2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="6"/>
+      <c r="B2" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="C2" s="6"/>
       <c r="D2" s="6"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
     </row>
-    <row r="3" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="A3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="6"/>
+      <c r="B3" s="6" t="s">
+        <v>19</v>
+      </c>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="5"/>
@@ -499,12 +514,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="P4" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="J5" s="2">
         <v>1</v>
       </c>
@@ -521,7 +536,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I6" s="2" t="s">
         <v>1</v>
       </c>
@@ -534,7 +549,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I7" s="2" t="s">
         <v>2</v>
       </c>
@@ -547,7 +562,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I8" s="2" t="s">
         <v>3</v>
       </c>
@@ -557,7 +572,7 @@
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I9" s="2" t="s">
         <v>4</v>
       </c>
@@ -567,7 +582,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I10" s="2" t="s">
         <v>5</v>
       </c>
@@ -577,7 +592,7 @@
       <c r="M10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I11" s="2" t="s">
         <v>6</v>
       </c>
@@ -587,7 +602,7 @@
       <c r="M11" s="1"/>
       <c r="N11" s="1"/>
     </row>
-    <row r="12" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I12" s="2" t="s">
         <v>7</v>
       </c>
@@ -597,7 +612,7 @@
       <c r="M12" s="1"/>
       <c r="N12" s="1"/>
     </row>
-    <row r="13" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I13" s="2" t="s">
         <v>8</v>
       </c>
@@ -607,7 +622,7 @@
       <c r="M13" s="1"/>
       <c r="N13" s="1"/>
     </row>
-    <row r="14" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I14" s="2" t="s">
         <v>9</v>
       </c>
@@ -617,7 +632,7 @@
       <c r="M14" s="1"/>
       <c r="N14" s="1"/>
     </row>
-    <row r="15" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I15" s="2" t="s">
         <v>10</v>
       </c>
@@ -627,7 +642,7 @@
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
     </row>
-    <row r="16" spans="1:16" ht="30" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:16" ht="30.6" x14ac:dyDescent="0.5">
       <c r="I16" s="2" t="s">
         <v>11</v>
       </c>
@@ -651,13 +666,101 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="E6:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="6" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="F6" s="2">
+        <v>2</v>
+      </c>
+      <c r="G6" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+    </row>
+    <row r="8" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+    </row>
+    <row r="14" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+    </row>
+    <row r="16" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E16" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+    </row>
+    <row r="17" spans="5:7" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="E17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
@@ -665,13 +768,103 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="F8:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="6:11" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="G8" s="2">
+        <v>1</v>
+      </c>
+      <c r="H8" s="2">
+        <v>2</v>
+      </c>
+      <c r="I8" s="2">
+        <v>3</v>
+      </c>
+      <c r="J8" s="2">
+        <v>4</v>
+      </c>
+      <c r="K8" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="6:11" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="F9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="6:11" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="6:11" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="F11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+    </row>
+    <row r="12" spans="6:11" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
+    </row>
+    <row r="13" spans="6:11" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="F13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="6:11" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="F14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="6:11" ht="30.6" x14ac:dyDescent="0.5">
+      <c r="F15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
